--- a/Schedule/일정표.xlsx
+++ b/Schedule/일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN\Documents\GitHub\Ball\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D87283-6D82-4E4B-A37E-C7AA9C55B640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B7446A-DFAE-4CFB-BAAB-8E23C7765C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{076D863C-A2A8-4BBE-B727-04F65830621A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>9월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,10 @@
   </si>
   <si>
     <t>공 분열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +88,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +125,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -136,7 +146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,6 +172,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3694EF-58EE-4372-983F-9D0ED450779D}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -629,6 +642,15 @@
       </c>
       <c r="AB8" s="8"/>
     </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+    </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>1</v>

--- a/Schedule/일정표.xlsx
+++ b/Schedule/일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN\Documents\GitHub\Ball\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B7446A-DFAE-4CFB-BAAB-8E23C7765C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3736328-64E8-4E0C-AA86-E71024CBFFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{076D863C-A2A8-4BBE-B727-04F65830621A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>9월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,13 @@
   <si>
     <t>공 분열</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
   </si>
   <si>
     <t>아이템</t>
@@ -491,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3694EF-58EE-4372-983F-9D0ED450779D}">
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -751,6 +758,19 @@
         <v>44500</v>
       </c>
     </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Schedule/일정표.xlsx
+++ b/Schedule/일정표.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN\Documents\GitHub\Ball\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3736328-64E8-4E0C-AA86-E71024CBFFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E553E028-0EF4-4CBA-8CD5-19076375C39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{076D863C-A2A8-4BBE-B727-04F65830621A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>9월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,14 @@
   </si>
   <si>
     <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3694EF-58EE-4372-983F-9D0ED450779D}">
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -764,12 +772,32 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="S17" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
